--- a/process.xlsx
+++ b/process.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_JARUD\_KULIAH\AI\NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\Telegram Desktop\8-Puzzle-Problem-master\8-Puzzle-Problem-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="20496" windowHeight="7752" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet11" sheetId="11" r:id="rId1"/>
+    <sheet name="A star" sheetId="11" r:id="rId1"/>
+    <sheet name="Greedy" sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="53">
   <si>
     <t>123</t>
   </si>
@@ -188,6 +189,24 @@
   </si>
   <si>
     <t>state sudah pernah ada</t>
+  </si>
+  <si>
+    <t>4(4)</t>
+  </si>
+  <si>
+    <t>5(5)</t>
+  </si>
+  <si>
+    <t>3(3)</t>
+  </si>
+  <si>
+    <t>2(2)</t>
+  </si>
+  <si>
+    <t>1(1)</t>
+  </si>
+  <si>
+    <t>0(0)</t>
   </si>
 </sst>
 </file>
@@ -573,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -674,69 +693,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,18 +725,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -791,6 +741,81 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,109 +1099,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AJ27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="1.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="1.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="1.7109375" style="1" customWidth="1"/>
-    <col min="11" max="12" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="1.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16" width="3.7109375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="1.7109375" style="1" customWidth="1"/>
-    <col min="19" max="20" width="3.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="1.7109375" style="1" customWidth="1"/>
-    <col min="23" max="24" width="3.7109375" style="1" customWidth="1"/>
-    <col min="25" max="26" width="1.7109375" style="1" customWidth="1"/>
-    <col min="27" max="28" width="3.7109375" style="1" customWidth="1"/>
-    <col min="29" max="30" width="1.7109375" style="1" customWidth="1"/>
-    <col min="31" max="32" width="3.7109375" style="1" customWidth="1"/>
-    <col min="33" max="34" width="1.7109375" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="1.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="1.6640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="1.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="3.6640625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="1.6640625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="3.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="1.6640625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="3.6640625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="1.6640625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="3.6640625" style="1" customWidth="1"/>
+    <col min="29" max="30" width="1.6640625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="3.6640625" style="1" customWidth="1"/>
+    <col min="33" max="34" width="1.6640625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:22" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="34" t="s">
+    <row r="2" spans="3:22" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="K2" s="34" t="s">
+      <c r="D2" s="61"/>
+      <c r="K2" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="35"/>
-    </row>
-    <row r="3" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C3" s="36" t="s">
+      <c r="L2" s="61"/>
+    </row>
+    <row r="3" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="59"/>
+      <c r="F3" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="K3" s="36" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="K3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="37"/>
-    </row>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C4" s="36" t="s">
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="F4" s="39" t="s">
+      <c r="D4" s="59"/>
+      <c r="F4" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="K4" s="36" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="K4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="37"/>
-    </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C5" s="36" t="s">
+      <c r="L4" s="59"/>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="F5" s="39" t="s">
+      <c r="D5" s="59"/>
+      <c r="F5" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="K5" s="36" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="K5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="37"/>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C6" s="51" t="s">
+      <c r="L5" s="59"/>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="52"/>
-    </row>
-    <row r="7" spans="3:22" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="C7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="54"/>
+      <c r="D6" s="55"/>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C7" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="3:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
       <c r="S8" s="29"/>
@@ -1184,58 +1209,58 @@
       <c r="U8" s="29"/>
       <c r="V8" s="29"/>
     </row>
-    <row r="9" spans="3:22" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D9" s="12"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="13"/>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
     </row>
     <row r="10" spans="3:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="G10" s="34" t="s">
+      <c r="D10" s="61"/>
+      <c r="G10" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="35"/>
+      <c r="H10" s="61"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
       <c r="M10" s="31"/>
     </row>
-    <row r="11" spans="3:22" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="C11" s="36" t="s">
+    <row r="11" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C11" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="G11" s="36" t="s">
+      <c r="D11" s="59"/>
+      <c r="G11" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="37"/>
+      <c r="H11" s="59"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="3:22" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="C12" s="36" t="s">
+    <row r="12" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C12" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="G12" s="36" t="s">
+      <c r="D12" s="59"/>
+      <c r="G12" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="37"/>
+      <c r="H12" s="59"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
       <c r="M12" s="18"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="29"/>
@@ -1244,49 +1269,49 @@
       <c r="U12" s="29"/>
       <c r="V12" s="29"/>
     </row>
-    <row r="13" spans="3:22" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="C13" s="36" t="s">
+    <row r="13" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C13" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="G13" s="36" t="s">
+      <c r="D13" s="59"/>
+      <c r="G13" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="37"/>
+      <c r="H13" s="59"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="3:22" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="C14" s="51" t="s">
+    <row r="14" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="G14" s="51" t="s">
+      <c r="D14" s="55"/>
+      <c r="G14" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="52"/>
+      <c r="H14" s="55"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="3:22" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="C15" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="G15" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="54"/>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C15" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="G15" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="57"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="3:22" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
       <c r="H16" s="17"/>
@@ -1301,119 +1326,119 @@
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
     </row>
-    <row r="17" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="40" t="s">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B18" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="20"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="35"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="18"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="20"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="37"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="18"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="37"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="18"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="20"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="37"/>
+      <c r="H22" s="59"/>
       <c r="I22" s="18"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="20"/>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="18"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="20"/>
-      <c r="C24" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="54"/>
+      <c r="C24" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="57"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="54"/>
+      <c r="G24" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="57"/>
       <c r="I24" s="18"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="20"/>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
@@ -1421,7 +1446,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="21"/>
       <c r="C26" s="24"/>
       <c r="D26" s="22"/>
@@ -1432,7 +1457,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="32"/>
       <c r="C27" s="33"/>
       <c r="D27" s="32"/>
@@ -1443,48 +1468,48 @@
       <c r="I27" s="32"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C28" s="6"/>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-    </row>
-    <row r="29" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C29" s="7"/>
       <c r="G29" s="13"/>
       <c r="K29" s="13"/>
-      <c r="N29" s="40" t="s">
+      <c r="N29" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
-    </row>
-    <row r="30" spans="2:21" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="C30" s="64" t="s">
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="53"/>
+    </row>
+    <row r="30" spans="2:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="G30" s="34" t="s">
+      <c r="D30" s="71"/>
+      <c r="G30" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="K30" s="34" t="s">
+      <c r="H30" s="61"/>
+      <c r="K30" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="35"/>
+      <c r="L30" s="61"/>
       <c r="N30" s="20"/>
-      <c r="O30" s="34" t="s">
+      <c r="O30" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="P30" s="35"/>
+      <c r="P30" s="61"/>
       <c r="Q30" s="31"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -1492,103 +1517,103 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="G31" s="36" t="s">
+      <c r="D31" s="59"/>
+      <c r="G31" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="37"/>
-      <c r="K31" s="36" t="s">
+      <c r="H31" s="59"/>
+      <c r="K31" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="L31" s="37"/>
+      <c r="L31" s="59"/>
       <c r="N31" s="20"/>
-      <c r="O31" s="36" t="s">
+      <c r="O31" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="37"/>
+      <c r="P31" s="59"/>
       <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="G32" s="36" t="s">
+      <c r="D32" s="59"/>
+      <c r="G32" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="37"/>
-      <c r="K32" s="36" t="s">
+      <c r="H32" s="59"/>
+      <c r="K32" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="L32" s="37"/>
+      <c r="L32" s="59"/>
       <c r="N32" s="20"/>
-      <c r="O32" s="36" t="s">
+      <c r="O32" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="37"/>
+      <c r="P32" s="59"/>
       <c r="Q32" s="18"/>
     </row>
     <row r="33" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="G33" s="36" t="s">
+      <c r="D33" s="59"/>
+      <c r="G33" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="37"/>
-      <c r="K33" s="36" t="s">
+      <c r="H33" s="59"/>
+      <c r="K33" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="L33" s="37"/>
+      <c r="L33" s="59"/>
       <c r="N33" s="20"/>
-      <c r="O33" s="36" t="s">
+      <c r="O33" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="P33" s="37"/>
+      <c r="P33" s="59"/>
       <c r="Q33" s="18"/>
     </row>
     <row r="34" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="G34" s="51" t="s">
+      <c r="D34" s="55"/>
+      <c r="G34" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="52"/>
-      <c r="K34" s="51" t="s">
+      <c r="H34" s="55"/>
+      <c r="K34" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="L34" s="52"/>
+      <c r="L34" s="55"/>
       <c r="N34" s="20"/>
-      <c r="O34" s="51" t="s">
+      <c r="O34" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="P34" s="52"/>
+      <c r="P34" s="55"/>
       <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="54"/>
-      <c r="G35" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="54"/>
-      <c r="K35" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="54"/>
+      <c r="C35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="57"/>
+      <c r="G35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="57"/>
+      <c r="K35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="57"/>
       <c r="N35" s="20"/>
-      <c r="O35" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="P35" s="54"/>
+      <c r="O35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="57"/>
       <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1611,165 +1636,165 @@
     </row>
     <row r="37" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G37" s="25"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
       <c r="R37" s="32"/>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="2:21" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B38" s="56" t="s">
+    <row r="38" spans="2:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="58"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="39"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="2:21" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="30"/>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="35"/>
+      <c r="D39" s="61"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="34" t="s">
+      <c r="G39" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="35"/>
+      <c r="H39" s="61"/>
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
-      <c r="K39" s="34" t="s">
+      <c r="K39" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="35"/>
+      <c r="L39" s="61"/>
       <c r="M39" s="31"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="20"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="37"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H40" s="37"/>
+      <c r="H40" s="59"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
-      <c r="K40" s="36" t="s">
+      <c r="K40" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="37"/>
+      <c r="L40" s="59"/>
       <c r="M40" s="18"/>
     </row>
-    <row r="41" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" s="20"/>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="37"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
-      <c r="G41" s="36" t="s">
+      <c r="G41" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="37"/>
+      <c r="H41" s="59"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
-      <c r="K41" s="36" t="s">
+      <c r="K41" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="37"/>
+      <c r="L41" s="59"/>
       <c r="M41" s="18"/>
     </row>
-    <row r="42" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="20"/>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="37"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
-      <c r="G42" s="36" t="s">
+      <c r="G42" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="37"/>
+      <c r="H42" s="59"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
-      <c r="K42" s="36" t="s">
+      <c r="K42" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="L42" s="37"/>
+      <c r="L42" s="59"/>
       <c r="M42" s="18"/>
     </row>
-    <row r="43" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="20"/>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="52"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="51" t="s">
+      <c r="G43" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="52"/>
+      <c r="H43" s="55"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
-      <c r="K43" s="51" t="s">
+      <c r="K43" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="52"/>
+      <c r="L43" s="55"/>
       <c r="M43" s="18"/>
     </row>
-    <row r="44" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" s="20"/>
-      <c r="C44" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="54"/>
+      <c r="C44" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="57"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
-      <c r="G44" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="54"/>
+      <c r="G44" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="57"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
-      <c r="K44" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" s="54"/>
+      <c r="K44" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="57"/>
       <c r="M44" s="18"/>
     </row>
-    <row r="45" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="20"/>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="50"/>
+      <c r="D45" s="69"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
@@ -1780,7 +1805,7 @@
       <c r="L45" s="23"/>
       <c r="M45" s="18"/>
     </row>
-    <row r="46" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" s="21"/>
       <c r="C46" s="24"/>
       <c r="D46" s="22"/>
@@ -1794,27 +1819,27 @@
       <c r="L46" s="22"/>
       <c r="M46" s="19"/>
     </row>
-    <row r="47" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D47" s="26"/>
     </row>
-    <row r="48" spans="2:21" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-    </row>
-    <row r="49" spans="2:33" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+    </row>
+    <row r="49" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C49" s="6"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -1828,218 +1853,218 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="4"/>
-      <c r="R49" s="40" t="s">
+      <c r="R49" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="42"/>
-      <c r="AE49" s="61"/>
-      <c r="AF49" s="61"/>
-      <c r="AG49" s="61"/>
-    </row>
-    <row r="50" spans="2:33" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="C50" s="34" t="s">
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="53"/>
+      <c r="AE49" s="42"/>
+      <c r="AF49" s="42"/>
+      <c r="AG49" s="42"/>
+    </row>
+    <row r="50" spans="2:33" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="35"/>
-      <c r="G50" s="66" t="s">
+      <c r="D50" s="61"/>
+      <c r="G50" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="67"/>
-      <c r="K50" s="34" t="s">
+      <c r="H50" s="75"/>
+      <c r="K50" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L50" s="35"/>
-      <c r="O50" s="34" t="s">
+      <c r="L50" s="61"/>
+      <c r="O50" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="P50" s="35"/>
+      <c r="P50" s="61"/>
       <c r="R50" s="30"/>
-      <c r="S50" s="34" t="s">
+      <c r="S50" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="T50" s="35"/>
+      <c r="T50" s="61"/>
       <c r="U50" s="28"/>
       <c r="V50" s="28"/>
-      <c r="W50" s="34" t="s">
+      <c r="W50" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="X50" s="35"/>
+      <c r="X50" s="61"/>
       <c r="Y50" s="31"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
-      <c r="AE50" s="62"/>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="62"/>
+      <c r="AE50" s="43"/>
+      <c r="AF50" s="43"/>
+      <c r="AG50" s="43"/>
     </row>
     <row r="51" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="37"/>
-      <c r="G51" s="36" t="s">
+      <c r="D51" s="59"/>
+      <c r="G51" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="37"/>
-      <c r="K51" s="36" t="s">
+      <c r="H51" s="59"/>
+      <c r="K51" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="L51" s="37"/>
-      <c r="O51" s="36" t="s">
+      <c r="L51" s="59"/>
+      <c r="O51" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="P51" s="37"/>
+      <c r="P51" s="59"/>
       <c r="R51" s="20"/>
-      <c r="S51" s="36" t="s">
+      <c r="S51" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="T51" s="37"/>
+      <c r="T51" s="59"/>
       <c r="U51" s="23"/>
       <c r="V51" s="23"/>
-      <c r="W51" s="36" t="s">
+      <c r="W51" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="X51" s="37"/>
+      <c r="X51" s="59"/>
       <c r="Y51" s="18"/>
       <c r="AE51" s="32"/>
       <c r="AF51" s="32"/>
       <c r="AG51" s="32"/>
     </row>
     <row r="52" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="37"/>
-      <c r="G52" s="36" t="s">
+      <c r="D52" s="59"/>
+      <c r="G52" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="H52" s="37"/>
-      <c r="K52" s="36" t="s">
+      <c r="H52" s="59"/>
+      <c r="K52" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="37"/>
-      <c r="O52" s="36" t="s">
+      <c r="L52" s="59"/>
+      <c r="O52" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="P52" s="37"/>
+      <c r="P52" s="59"/>
       <c r="R52" s="20"/>
-      <c r="S52" s="36" t="s">
+      <c r="S52" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="T52" s="37"/>
+      <c r="T52" s="59"/>
       <c r="U52" s="23"/>
       <c r="V52" s="23"/>
-      <c r="W52" s="36" t="s">
+      <c r="W52" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="X52" s="37"/>
+      <c r="X52" s="59"/>
       <c r="Y52" s="18"/>
       <c r="AE52" s="32"/>
       <c r="AF52" s="32"/>
       <c r="AG52" s="32"/>
     </row>
     <row r="53" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="37"/>
-      <c r="G53" s="36" t="s">
+      <c r="D53" s="59"/>
+      <c r="G53" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="37"/>
-      <c r="K53" s="36" t="s">
+      <c r="H53" s="59"/>
+      <c r="K53" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="L53" s="37"/>
-      <c r="O53" s="36" t="s">
+      <c r="L53" s="59"/>
+      <c r="O53" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="P53" s="37"/>
+      <c r="P53" s="59"/>
       <c r="R53" s="20"/>
-      <c r="S53" s="36" t="s">
+      <c r="S53" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="T53" s="37"/>
+      <c r="T53" s="59"/>
       <c r="U53" s="23"/>
       <c r="V53" s="23"/>
-      <c r="W53" s="36" t="s">
+      <c r="W53" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="X53" s="37"/>
+      <c r="X53" s="59"/>
       <c r="Y53" s="18"/>
       <c r="AE53" s="32"/>
       <c r="AF53" s="32"/>
       <c r="AG53" s="32"/>
     </row>
     <row r="54" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="52"/>
-      <c r="G54" s="51" t="s">
+      <c r="D54" s="55"/>
+      <c r="G54" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="52"/>
-      <c r="K54" s="51" t="s">
+      <c r="H54" s="55"/>
+      <c r="K54" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="L54" s="52"/>
-      <c r="O54" s="51" t="s">
+      <c r="L54" s="55"/>
+      <c r="O54" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="P54" s="52"/>
+      <c r="P54" s="55"/>
       <c r="R54" s="20"/>
-      <c r="S54" s="51" t="s">
+      <c r="S54" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="T54" s="52"/>
+      <c r="T54" s="55"/>
       <c r="U54" s="23"/>
       <c r="V54" s="23"/>
-      <c r="W54" s="51" t="s">
+      <c r="W54" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="X54" s="52"/>
+      <c r="X54" s="55"/>
       <c r="Y54" s="18"/>
       <c r="AE54" s="32"/>
       <c r="AF54" s="32"/>
       <c r="AG54" s="32"/>
     </row>
-    <row r="55" spans="2:33" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="C55" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="54"/>
-      <c r="G55" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="54"/>
-      <c r="K55" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="L55" s="54"/>
-      <c r="O55" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="P55" s="54"/>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="C55" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="57"/>
+      <c r="G55" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="57"/>
+      <c r="K55" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="57"/>
+      <c r="O55" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P55" s="57"/>
       <c r="R55" s="20"/>
-      <c r="S55" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="T55" s="54"/>
+      <c r="S55" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="T55" s="57"/>
       <c r="U55" s="23"/>
       <c r="V55" s="23"/>
-      <c r="W55" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="X55" s="54"/>
+      <c r="W55" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="X55" s="57"/>
       <c r="Y55" s="18"/>
       <c r="AE55" s="32"/>
       <c r="AF55" s="32"/>
@@ -2059,8 +2084,8 @@
       <c r="N56" s="10"/>
       <c r="O56" s="11"/>
       <c r="R56" s="20"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="60"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="41"/>
       <c r="U56" s="23"/>
       <c r="V56" s="23"/>
       <c r="W56" s="22"/>
@@ -2074,16 +2099,16 @@
       <c r="AF56" s="32"/>
       <c r="AG56" s="32"/>
     </row>
-    <row r="57" spans="2:33" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:33" x14ac:dyDescent="0.2">
       <c r="I57" s="25"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="55"/>
-      <c r="W57" s="55"/>
-      <c r="X57" s="55"/>
-      <c r="Y57" s="55"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
       <c r="Z57" s="32"/>
       <c r="AA57" s="32"/>
       <c r="AB57" s="32"/>
@@ -2093,29 +2118,29 @@
       <c r="AF57" s="32"/>
       <c r="AG57" s="32"/>
     </row>
-    <row r="58" spans="2:33" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="40" t="s">
+    <row r="58" spans="2:33" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="41"/>
-      <c r="U58" s="42"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="53"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
@@ -2127,36 +2152,36 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="2:33" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:33" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="30"/>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="35"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
-      <c r="G59" s="34" t="s">
+      <c r="G59" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="35"/>
+      <c r="H59" s="61"/>
       <c r="I59" s="28"/>
       <c r="J59" s="28"/>
-      <c r="K59" s="34" t="s">
+      <c r="K59" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="L59" s="35"/>
+      <c r="L59" s="61"/>
       <c r="M59" s="28"/>
       <c r="N59" s="28"/>
-      <c r="O59" s="34" t="s">
+      <c r="O59" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="P59" s="35"/>
+      <c r="P59" s="61"/>
       <c r="Q59" s="28"/>
       <c r="R59" s="28"/>
-      <c r="S59" s="34" t="s">
+      <c r="S59" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="T59" s="35"/>
+      <c r="T59" s="61"/>
       <c r="U59" s="31"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
@@ -2171,170 +2196,170 @@
     </row>
     <row r="60" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="20"/>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="37"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
-      <c r="G60" s="36" t="s">
+      <c r="G60" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="37"/>
+      <c r="H60" s="59"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
-      <c r="K60" s="36" t="s">
+      <c r="K60" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="L60" s="37"/>
+      <c r="L60" s="59"/>
       <c r="M60" s="23"/>
       <c r="N60" s="23"/>
-      <c r="O60" s="36" t="s">
+      <c r="O60" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="P60" s="37"/>
+      <c r="P60" s="59"/>
       <c r="Q60" s="23"/>
       <c r="R60" s="23"/>
-      <c r="S60" s="36" t="s">
+      <c r="S60" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="T60" s="37"/>
+      <c r="T60" s="59"/>
       <c r="U60" s="18"/>
     </row>
     <row r="61" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="20"/>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="37"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
-      <c r="G61" s="36" t="s">
+      <c r="G61" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="37"/>
+      <c r="H61" s="59"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
-      <c r="K61" s="36" t="s">
+      <c r="K61" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="37"/>
+      <c r="L61" s="59"/>
       <c r="M61" s="23"/>
       <c r="N61" s="23"/>
-      <c r="O61" s="36" t="s">
+      <c r="O61" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="P61" s="37"/>
+      <c r="P61" s="59"/>
       <c r="Q61" s="23"/>
       <c r="R61" s="23"/>
-      <c r="S61" s="36" t="s">
+      <c r="S61" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="T61" s="37"/>
+      <c r="T61" s="59"/>
       <c r="U61" s="18"/>
     </row>
     <row r="62" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="20"/>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="37"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
-      <c r="G62" s="36" t="s">
+      <c r="G62" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="37"/>
+      <c r="H62" s="59"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
-      <c r="K62" s="36" t="s">
+      <c r="K62" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="L62" s="37"/>
+      <c r="L62" s="59"/>
       <c r="M62" s="23"/>
       <c r="N62" s="23"/>
-      <c r="O62" s="36" t="s">
+      <c r="O62" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="37"/>
+      <c r="P62" s="59"/>
       <c r="Q62" s="23"/>
       <c r="R62" s="23"/>
-      <c r="S62" s="36" t="s">
+      <c r="S62" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T62" s="37"/>
+      <c r="T62" s="59"/>
       <c r="U62" s="18"/>
     </row>
     <row r="63" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="20"/>
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="52"/>
+      <c r="D63" s="55"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
-      <c r="G63" s="51" t="s">
+      <c r="G63" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="52"/>
+      <c r="H63" s="55"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
-      <c r="K63" s="51" t="s">
+      <c r="K63" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="L63" s="52"/>
+      <c r="L63" s="55"/>
       <c r="M63" s="23"/>
       <c r="N63" s="23"/>
-      <c r="O63" s="51" t="s">
+      <c r="O63" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="P63" s="52"/>
+      <c r="P63" s="55"/>
       <c r="Q63" s="23"/>
       <c r="R63" s="23"/>
-      <c r="S63" s="51" t="s">
+      <c r="S63" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="T63" s="52"/>
+      <c r="T63" s="55"/>
       <c r="U63" s="18"/>
     </row>
     <row r="64" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="20"/>
-      <c r="C64" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="54"/>
+      <c r="C64" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="57"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
-      <c r="G64" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="54"/>
+      <c r="G64" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="57"/>
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
-      <c r="K64" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="L64" s="54"/>
+      <c r="K64" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="57"/>
       <c r="M64" s="23"/>
       <c r="N64" s="23"/>
-      <c r="O64" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="P64" s="54"/>
+      <c r="O64" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P64" s="57"/>
       <c r="Q64" s="23"/>
       <c r="R64" s="23"/>
-      <c r="S64" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="T64" s="54"/>
+      <c r="S64" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="T64" s="57"/>
       <c r="U64" s="18"/>
     </row>
-    <row r="65" spans="2:37" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B65" s="20"/>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="50"/>
+      <c r="D65" s="69"/>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
@@ -2353,7 +2378,7 @@
       <c r="T65" s="23"/>
       <c r="U65" s="18"/>
     </row>
-    <row r="66" spans="2:37" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B66" s="21"/>
       <c r="C66" s="24"/>
       <c r="D66" s="22"/>
@@ -2375,23 +2400,23 @@
       <c r="T66" s="22"/>
       <c r="U66" s="19"/>
     </row>
-    <row r="67" spans="2:37" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:37" x14ac:dyDescent="0.2">
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="2:37" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:37" x14ac:dyDescent="0.2">
       <c r="C68" s="6"/>
-      <c r="D68" s="43" t="s">
+      <c r="D68" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44"/>
-    </row>
-    <row r="69" spans="2:37" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+    </row>
+    <row r="69" spans="2:37" x14ac:dyDescent="0.2">
       <c r="C69" s="7"/>
       <c r="D69" s="2"/>
       <c r="E69" s="3"/>
@@ -2401,61 +2426,61 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="4"/>
-      <c r="N69" s="40" t="s">
+      <c r="N69" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="41"/>
-      <c r="T69" s="41"/>
-      <c r="U69" s="41"/>
-      <c r="V69" s="41"/>
-      <c r="W69" s="41"/>
-      <c r="X69" s="41"/>
-      <c r="Y69" s="41"/>
-      <c r="Z69" s="41"/>
-      <c r="AA69" s="41"/>
-      <c r="AB69" s="41"/>
-      <c r="AC69" s="42"/>
-    </row>
-    <row r="70" spans="2:37" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="C70" s="34" t="s">
+      <c r="O69" s="52"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="52"/>
+      <c r="R69" s="52"/>
+      <c r="S69" s="52"/>
+      <c r="T69" s="52"/>
+      <c r="U69" s="52"/>
+      <c r="V69" s="52"/>
+      <c r="W69" s="52"/>
+      <c r="X69" s="52"/>
+      <c r="Y69" s="52"/>
+      <c r="Z69" s="52"/>
+      <c r="AA69" s="52"/>
+      <c r="AB69" s="52"/>
+      <c r="AC69" s="53"/>
+    </row>
+    <row r="70" spans="2:37" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="G70" s="64" t="s">
+      <c r="D70" s="61"/>
+      <c r="G70" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="H70" s="65"/>
-      <c r="K70" s="34" t="s">
+      <c r="H70" s="71"/>
+      <c r="K70" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="L70" s="35"/>
+      <c r="L70" s="61"/>
       <c r="N70" s="30"/>
-      <c r="O70" s="34" t="s">
+      <c r="O70" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="P70" s="35"/>
+      <c r="P70" s="61"/>
       <c r="Q70" s="28"/>
       <c r="R70" s="28"/>
-      <c r="S70" s="34" t="s">
+      <c r="S70" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="T70" s="35"/>
+      <c r="T70" s="61"/>
       <c r="U70" s="28"/>
       <c r="V70" s="28"/>
-      <c r="W70" s="34" t="s">
+      <c r="W70" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="X70" s="35"/>
+      <c r="X70" s="61"/>
       <c r="Y70" s="28"/>
       <c r="Z70" s="28"/>
-      <c r="AA70" s="34" t="s">
+      <c r="AA70" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="AB70" s="35"/>
+      <c r="AB70" s="61"/>
       <c r="AC70" s="31"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
@@ -2467,196 +2492,196 @@
       <c r="AK70" s="1"/>
     </row>
     <row r="71" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="G71" s="36" t="s">
+      <c r="D71" s="59"/>
+      <c r="G71" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H71" s="37"/>
-      <c r="K71" s="36" t="s">
+      <c r="H71" s="59"/>
+      <c r="K71" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="L71" s="37"/>
+      <c r="L71" s="59"/>
       <c r="N71" s="20"/>
-      <c r="O71" s="36" t="s">
+      <c r="O71" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="P71" s="37"/>
+      <c r="P71" s="59"/>
       <c r="Q71" s="23"/>
       <c r="R71" s="23"/>
-      <c r="S71" s="36" t="s">
+      <c r="S71" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="T71" s="37"/>
+      <c r="T71" s="59"/>
       <c r="U71" s="23"/>
       <c r="V71" s="23"/>
-      <c r="W71" s="36" t="s">
+      <c r="W71" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="X71" s="37"/>
+      <c r="X71" s="59"/>
       <c r="Y71" s="23"/>
       <c r="Z71" s="23"/>
-      <c r="AA71" s="36" t="s">
+      <c r="AA71" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="AB71" s="37"/>
+      <c r="AB71" s="59"/>
       <c r="AC71" s="18"/>
     </row>
     <row r="72" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="37"/>
-      <c r="G72" s="36" t="s">
+      <c r="D72" s="59"/>
+      <c r="G72" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="37"/>
-      <c r="K72" s="36" t="s">
+      <c r="H72" s="59"/>
+      <c r="K72" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="L72" s="37"/>
+      <c r="L72" s="59"/>
       <c r="N72" s="20"/>
-      <c r="O72" s="36" t="s">
+      <c r="O72" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="P72" s="37"/>
+      <c r="P72" s="59"/>
       <c r="Q72" s="23"/>
       <c r="R72" s="23"/>
-      <c r="S72" s="36" t="s">
+      <c r="S72" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="T72" s="37"/>
+      <c r="T72" s="59"/>
       <c r="U72" s="23"/>
       <c r="V72" s="23"/>
-      <c r="W72" s="36" t="s">
+      <c r="W72" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="X72" s="37"/>
+      <c r="X72" s="59"/>
       <c r="Y72" s="23"/>
       <c r="Z72" s="23"/>
-      <c r="AA72" s="36" t="s">
+      <c r="AA72" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AB72" s="37"/>
+      <c r="AB72" s="59"/>
       <c r="AC72" s="18"/>
     </row>
     <row r="73" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="37"/>
-      <c r="G73" s="36" t="s">
+      <c r="D73" s="59"/>
+      <c r="G73" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H73" s="37"/>
-      <c r="K73" s="36" t="s">
+      <c r="H73" s="59"/>
+      <c r="K73" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="L73" s="37"/>
+      <c r="L73" s="59"/>
       <c r="N73" s="20"/>
-      <c r="O73" s="36" t="s">
+      <c r="O73" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="P73" s="37"/>
+      <c r="P73" s="59"/>
       <c r="Q73" s="23"/>
       <c r="R73" s="23"/>
-      <c r="S73" s="36" t="s">
+      <c r="S73" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="T73" s="37"/>
+      <c r="T73" s="59"/>
       <c r="U73" s="23"/>
       <c r="V73" s="23"/>
-      <c r="W73" s="36" t="s">
+      <c r="W73" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="X73" s="37"/>
+      <c r="X73" s="59"/>
       <c r="Y73" s="23"/>
       <c r="Z73" s="23"/>
-      <c r="AA73" s="36" t="s">
+      <c r="AA73" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AB73" s="37"/>
+      <c r="AB73" s="59"/>
       <c r="AC73" s="18"/>
     </row>
     <row r="74" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="52"/>
-      <c r="G74" s="51" t="s">
+      <c r="D74" s="55"/>
+      <c r="G74" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="H74" s="52"/>
-      <c r="K74" s="51" t="s">
+      <c r="H74" s="55"/>
+      <c r="K74" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="L74" s="52"/>
+      <c r="L74" s="55"/>
       <c r="N74" s="20"/>
-      <c r="O74" s="51" t="s">
+      <c r="O74" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="P74" s="52"/>
+      <c r="P74" s="55"/>
       <c r="Q74" s="23"/>
       <c r="R74" s="23"/>
-      <c r="S74" s="51" t="s">
+      <c r="S74" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="T74" s="52"/>
+      <c r="T74" s="55"/>
       <c r="U74" s="23"/>
       <c r="V74" s="23"/>
-      <c r="W74" s="51" t="s">
+      <c r="W74" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="X74" s="52"/>
+      <c r="X74" s="55"/>
       <c r="Y74" s="23"/>
       <c r="Z74" s="23"/>
-      <c r="AA74" s="51" t="s">
+      <c r="AA74" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AB74" s="52"/>
+      <c r="AB74" s="55"/>
       <c r="AC74" s="18"/>
     </row>
     <row r="75" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="54"/>
-      <c r="G75" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="54"/>
-      <c r="K75" s="45" t="s">
+      <c r="C75" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="57"/>
+      <c r="G75" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="57"/>
+      <c r="K75" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="L75" s="46"/>
+      <c r="L75" s="63"/>
       <c r="N75" s="20"/>
-      <c r="O75" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="P75" s="54"/>
+      <c r="O75" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P75" s="57"/>
       <c r="Q75" s="23"/>
       <c r="R75" s="23"/>
-      <c r="S75" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="T75" s="54"/>
+      <c r="S75" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="T75" s="57"/>
       <c r="U75" s="23"/>
       <c r="V75" s="23"/>
-      <c r="W75" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="X75" s="54"/>
+      <c r="W75" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="X75" s="57"/>
       <c r="Y75" s="23"/>
       <c r="Z75" s="23"/>
-      <c r="AA75" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB75" s="54"/>
+      <c r="AA75" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB75" s="57"/>
       <c r="AC75" s="18"/>
     </row>
-    <row r="76" spans="2:37" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:37" x14ac:dyDescent="0.2">
       <c r="D76" s="9"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
@@ -2666,8 +2691,8 @@
       <c r="J76" s="10"/>
       <c r="K76" s="11"/>
       <c r="N76" s="21"/>
-      <c r="O76" s="60"/>
-      <c r="P76" s="60"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
       <c r="S76" s="22"/>
@@ -2682,271 +2707,271 @@
       <c r="AB76" s="22"/>
       <c r="AC76" s="19"/>
     </row>
-    <row r="77" spans="2:37" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:37" x14ac:dyDescent="0.2">
       <c r="G77" s="25"/>
     </row>
-    <row r="78" spans="2:37" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="B78" s="40" t="s">
+    <row r="78" spans="2:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
-      <c r="Q78" s="41"/>
-      <c r="R78" s="41"/>
-      <c r="S78" s="41"/>
-      <c r="T78" s="41"/>
-      <c r="U78" s="41"/>
-      <c r="V78" s="41"/>
-      <c r="W78" s="41"/>
-      <c r="X78" s="41"/>
-      <c r="Y78" s="42"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="52"/>
+      <c r="P78" s="52"/>
+      <c r="Q78" s="52"/>
+      <c r="R78" s="52"/>
+      <c r="S78" s="52"/>
+      <c r="T78" s="52"/>
+      <c r="U78" s="52"/>
+      <c r="V78" s="52"/>
+      <c r="W78" s="52"/>
+      <c r="X78" s="52"/>
+      <c r="Y78" s="53"/>
     </row>
     <row r="79" spans="2:37" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="30"/>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="35"/>
+      <c r="D79" s="61"/>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
-      <c r="G79" s="34" t="s">
+      <c r="G79" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="H79" s="35"/>
+      <c r="H79" s="61"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
-      <c r="K79" s="34" t="s">
+      <c r="K79" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="L79" s="35"/>
+      <c r="L79" s="61"/>
       <c r="M79" s="28"/>
       <c r="N79" s="28"/>
-      <c r="O79" s="34" t="s">
+      <c r="O79" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="P79" s="35"/>
+      <c r="P79" s="61"/>
       <c r="Q79" s="28"/>
       <c r="R79" s="28"/>
-      <c r="S79" s="34" t="s">
+      <c r="S79" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="T79" s="35"/>
+      <c r="T79" s="61"/>
       <c r="U79" s="28"/>
       <c r="V79" s="28"/>
-      <c r="W79" s="34" t="s">
+      <c r="W79" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="X79" s="35"/>
-      <c r="Y79" s="68"/>
+      <c r="X79" s="61"/>
+      <c r="Y79" s="45"/>
     </row>
     <row r="80" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="20"/>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D80" s="37"/>
+      <c r="D80" s="59"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
-      <c r="G80" s="36" t="s">
+      <c r="G80" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="37"/>
+      <c r="H80" s="59"/>
       <c r="I80" s="23"/>
       <c r="J80" s="23"/>
-      <c r="K80" s="36" t="s">
+      <c r="K80" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="L80" s="37"/>
+      <c r="L80" s="59"/>
       <c r="M80" s="23"/>
       <c r="N80" s="23"/>
-      <c r="O80" s="36" t="s">
+      <c r="O80" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="P80" s="37"/>
+      <c r="P80" s="59"/>
       <c r="Q80" s="23"/>
       <c r="R80" s="23"/>
-      <c r="S80" s="36" t="s">
+      <c r="S80" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="T80" s="37"/>
+      <c r="T80" s="59"/>
       <c r="U80" s="23"/>
       <c r="V80" s="23"/>
-      <c r="W80" s="36" t="s">
+      <c r="W80" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="X80" s="37"/>
-      <c r="Y80" s="68"/>
+      <c r="X80" s="59"/>
+      <c r="Y80" s="45"/>
     </row>
     <row r="81" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="20"/>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="37"/>
+      <c r="D81" s="59"/>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
-      <c r="G81" s="36" t="s">
+      <c r="G81" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="37"/>
+      <c r="H81" s="59"/>
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
-      <c r="K81" s="36" t="s">
+      <c r="K81" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="L81" s="37"/>
+      <c r="L81" s="59"/>
       <c r="M81" s="23"/>
       <c r="N81" s="23"/>
-      <c r="O81" s="36" t="s">
+      <c r="O81" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="P81" s="37"/>
+      <c r="P81" s="59"/>
       <c r="Q81" s="23"/>
       <c r="R81" s="23"/>
-      <c r="S81" s="36" t="s">
+      <c r="S81" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="T81" s="37"/>
+      <c r="T81" s="59"/>
       <c r="U81" s="23"/>
       <c r="V81" s="23"/>
-      <c r="W81" s="36" t="s">
+      <c r="W81" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="68"/>
+      <c r="X81" s="59"/>
+      <c r="Y81" s="45"/>
     </row>
     <row r="82" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="20"/>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="37"/>
+      <c r="D82" s="59"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
-      <c r="G82" s="36" t="s">
+      <c r="G82" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H82" s="37"/>
+      <c r="H82" s="59"/>
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
-      <c r="K82" s="36" t="s">
+      <c r="K82" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="L82" s="37"/>
+      <c r="L82" s="59"/>
       <c r="M82" s="23"/>
       <c r="N82" s="23"/>
-      <c r="O82" s="36" t="s">
+      <c r="O82" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="P82" s="37"/>
+      <c r="P82" s="59"/>
       <c r="Q82" s="23"/>
       <c r="R82" s="23"/>
-      <c r="S82" s="36" t="s">
+      <c r="S82" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="T82" s="37"/>
+      <c r="T82" s="59"/>
       <c r="U82" s="23"/>
       <c r="V82" s="23"/>
-      <c r="W82" s="36" t="s">
+      <c r="W82" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="X82" s="37"/>
-      <c r="Y82" s="68"/>
+      <c r="X82" s="59"/>
+      <c r="Y82" s="45"/>
     </row>
     <row r="83" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="20"/>
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="52"/>
+      <c r="D83" s="55"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
-      <c r="G83" s="51" t="s">
+      <c r="G83" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H83" s="52"/>
+      <c r="H83" s="55"/>
       <c r="I83" s="23"/>
       <c r="J83" s="23"/>
-      <c r="K83" s="51" t="s">
+      <c r="K83" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="52"/>
+      <c r="L83" s="55"/>
       <c r="M83" s="23"/>
       <c r="N83" s="23"/>
-      <c r="O83" s="51" t="s">
+      <c r="O83" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="P83" s="52"/>
+      <c r="P83" s="55"/>
       <c r="Q83" s="23"/>
       <c r="R83" s="23"/>
-      <c r="S83" s="51" t="s">
+      <c r="S83" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="T83" s="52"/>
+      <c r="T83" s="55"/>
       <c r="U83" s="23"/>
       <c r="V83" s="23"/>
-      <c r="W83" s="51" t="s">
+      <c r="W83" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="X83" s="52"/>
-      <c r="Y83" s="68"/>
+      <c r="X83" s="55"/>
+      <c r="Y83" s="45"/>
     </row>
     <row r="84" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="20"/>
-      <c r="C84" s="45" t="s">
+      <c r="C84" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="46"/>
+      <c r="D84" s="63"/>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
-      <c r="G84" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="54"/>
+      <c r="G84" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="57"/>
       <c r="I84" s="23"/>
       <c r="J84" s="23"/>
-      <c r="K84" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="L84" s="54"/>
+      <c r="K84" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84" s="57"/>
       <c r="M84" s="23"/>
       <c r="N84" s="23"/>
-      <c r="O84" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="P84" s="54"/>
+      <c r="O84" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P84" s="57"/>
       <c r="Q84" s="23"/>
       <c r="R84" s="23"/>
-      <c r="S84" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="T84" s="54"/>
+      <c r="S84" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="T84" s="57"/>
       <c r="U84" s="23"/>
       <c r="V84" s="23"/>
-      <c r="W84" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="X84" s="54"/>
-      <c r="Y84" s="68"/>
-    </row>
-    <row r="85" spans="2:25" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="W84" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="X84" s="57"/>
+      <c r="Y84" s="45"/>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B85" s="20"/>
-      <c r="C85" s="49" t="s">
+      <c r="C85" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D85" s="50"/>
+      <c r="D85" s="69"/>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
@@ -2967,9 +2992,9 @@
       <c r="V85" s="23"/>
       <c r="W85" s="23"/>
       <c r="X85" s="23"/>
-      <c r="Y85" s="68"/>
-    </row>
-    <row r="86" spans="2:25" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="Y85" s="45"/>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B86" s="21"/>
       <c r="C86" s="24"/>
       <c r="D86" s="22"/>
@@ -2993,9 +3018,9 @@
       <c r="V86" s="22"/>
       <c r="W86" s="22"/>
       <c r="X86" s="22"/>
-      <c r="Y86" s="69"/>
-    </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y86" s="46"/>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="5"/>
@@ -3009,104 +3034,333 @@
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
     </row>
-    <row r="88" spans="2:25" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="2:25" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="C89" s="34" t="s">
+    <row r="89" spans="2:25" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="35"/>
-      <c r="K89" s="34" t="s">
+      <c r="D89" s="61"/>
+      <c r="K89" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="L89" s="35"/>
-      <c r="N89" s="73" t="s">
+      <c r="L89" s="61"/>
+      <c r="N89" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="O89" s="73"/>
-      <c r="P89" s="73"/>
-      <c r="Q89" s="73"/>
-      <c r="R89" s="73"/>
-      <c r="S89" s="73"/>
-      <c r="T89" s="73"/>
-    </row>
-    <row r="90" spans="2:25" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="C90" s="36" t="s">
+      <c r="O89" s="50"/>
+      <c r="P89" s="50"/>
+      <c r="Q89" s="50"/>
+      <c r="R89" s="50"/>
+      <c r="S89" s="50"/>
+      <c r="T89" s="50"/>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C90" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D90" s="37"/>
-      <c r="F90" s="39" t="s">
+      <c r="D90" s="59"/>
+      <c r="F90" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="K90" s="36" t="s">
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="K90" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="L90" s="37"/>
-      <c r="N90" s="63"/>
-      <c r="O90" s="72" t="s">
+      <c r="L90" s="59"/>
+      <c r="N90" s="44"/>
+      <c r="O90" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="P90" s="72"/>
-      <c r="Q90" s="72"/>
-      <c r="R90" s="72"/>
-    </row>
-    <row r="91" spans="2:25" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="C91" s="36" t="s">
+      <c r="P90" s="49"/>
+      <c r="Q90" s="49"/>
+      <c r="R90" s="49"/>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C91" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="37"/>
-      <c r="F91" s="38" t="s">
+      <c r="D91" s="59"/>
+      <c r="F91" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="K91" s="36" t="s">
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
+      <c r="K91" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="L91" s="37"/>
-    </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+      <c r="L91" s="59"/>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C92" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="F92" s="39" t="s">
+      <c r="D92" s="59"/>
+      <c r="F92" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="K92" s="36" t="s">
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="K92" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="L92" s="37"/>
-    </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C93" s="51" t="s">
+      <c r="L92" s="59"/>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C93" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="52"/>
-    </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C94" s="45" t="s">
+      <c r="D93" s="55"/>
+    </row>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C94" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D94" s="46"/>
-      <c r="J94" s="71"/>
-    </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C95" s="47" t="s">
+      <c r="D94" s="63"/>
+      <c r="J94" s="48"/>
+    </row>
+    <row r="95" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C95" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D95" s="48"/>
+      <c r="D95" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="253">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="D48:O48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B58:U58"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="D68:K68"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="R49:Y49"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="AA71:AB71"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="AA70:AB70"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="W72:X72"/>
+    <mergeCell ref="W73:X73"/>
+    <mergeCell ref="W74:X74"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="AA75:AB75"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="AA74:AB74"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="AA72:AB72"/>
     <mergeCell ref="N89:T89"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="O83:P83"/>
@@ -3131,63 +3385,2052 @@
     <mergeCell ref="B78:Y78"/>
     <mergeCell ref="W70:X70"/>
     <mergeCell ref="W71:X71"/>
-    <mergeCell ref="W72:X72"/>
-    <mergeCell ref="W73:X73"/>
-    <mergeCell ref="W74:X74"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="AA75:AB75"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="AA74:AB74"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="AA73:AB73"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="S72:T72"/>
-    <mergeCell ref="AA72:AB72"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="AA71:AB71"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="AA70:AB70"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="S61:T61"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="R49:Y49"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="10001" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AK95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="S97" sqref="S97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="1.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="1.6640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="1.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="3.6640625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="1.6640625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="3.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="1.6640625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="3.6640625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="1.6640625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="3.6640625" style="1" customWidth="1"/>
+    <col min="29" max="30" width="1.6640625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="3.6640625" style="1" customWidth="1"/>
+    <col min="33" max="34" width="1.6640625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:22" s="29" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.3">
+      <c r="C2" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="K2" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="61"/>
+    </row>
+    <row r="3" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C3" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="F3" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="K3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C4" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="F4" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="K4" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="59"/>
+    </row>
+    <row r="5" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C5" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="F5" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="K5" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="59"/>
+    </row>
+    <row r="6" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C6" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="55"/>
+    </row>
+    <row r="7" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C7" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="D8" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+    </row>
+    <row r="9" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="D9" s="34"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="35"/>
+      <c r="J9" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C10" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="G10" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="61"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C11" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="G11" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="59"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C12" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="G12" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="18"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+    </row>
+    <row r="13" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C13" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="G13" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="G14" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="55"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C15" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="G15" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="3:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="D16" s="14"/>
+      <c r="E16" s="10"/>
+      <c r="H16" s="17"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="19"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+    </row>
+    <row r="17" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B18" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B19" s="20"/>
+      <c r="C19" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="61"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B20" s="20"/>
+      <c r="C20" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="59"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B21" s="20"/>
+      <c r="C21" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="59"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="59"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B22" s="20"/>
+      <c r="C22" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="59"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="59"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B23" s="20"/>
+      <c r="C23" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="55"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="55"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B24" s="20"/>
+      <c r="C24" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="57"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B25" s="20"/>
+      <c r="C25" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="69"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C28" s="6"/>
+      <c r="D28" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+    </row>
+    <row r="29" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C29" s="7"/>
+      <c r="G29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="N29" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="53"/>
+    </row>
+    <row r="30" spans="2:21" s="29" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="G30" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="61"/>
+      <c r="K30" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="61"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C31" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="59"/>
+      <c r="G31" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="59"/>
+      <c r="K31" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="59"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="18"/>
+    </row>
+    <row r="32" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C32" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="59"/>
+      <c r="G32" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="59"/>
+      <c r="K32" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="59"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="18"/>
+    </row>
+    <row r="33" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C33" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="59"/>
+      <c r="G33" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="59"/>
+      <c r="K33" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="59"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="18"/>
+    </row>
+    <row r="34" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C34" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="55"/>
+      <c r="G34" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="55"/>
+      <c r="K34" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="55"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="18"/>
+    </row>
+    <row r="35" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="57"/>
+      <c r="G35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="57"/>
+      <c r="K35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="57"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="18"/>
+    </row>
+    <row r="36" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="D36" s="14"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="11"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="G37" s="25"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+    </row>
+    <row r="38" spans="2:21" s="29" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B38" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="2:21" s="29" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B39" s="30"/>
+      <c r="C39" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="61"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="61"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="61"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B40" s="20"/>
+      <c r="C40" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="59"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="59"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="59"/>
+      <c r="M40" s="18"/>
+    </row>
+    <row r="41" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B41" s="20"/>
+      <c r="C41" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="59"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="59"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="59"/>
+      <c r="M41" s="18"/>
+    </row>
+    <row r="42" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B42" s="20"/>
+      <c r="C42" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="59"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="59"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="59"/>
+      <c r="M42" s="18"/>
+    </row>
+    <row r="43" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B43" s="20"/>
+      <c r="C43" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="55"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="55"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" s="55"/>
+      <c r="M43" s="18"/>
+    </row>
+    <row r="44" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B44" s="20"/>
+      <c r="C44" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="57"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="57"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="57"/>
+      <c r="M44" s="18"/>
+    </row>
+    <row r="45" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B45" s="20"/>
+      <c r="C45" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="69"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="18"/>
+    </row>
+    <row r="46" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B46" s="21"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="19"/>
+    </row>
+    <row r="47" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="2:21" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B48" s="5"/>
+      <c r="D48" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+    </row>
+    <row r="49" spans="2:33" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C49" s="6"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="4"/>
+      <c r="R49" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="53"/>
+      <c r="AE49" s="42"/>
+      <c r="AF49" s="42"/>
+      <c r="AG49" s="42"/>
+    </row>
+    <row r="50" spans="2:33" s="29" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C50" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="61"/>
+      <c r="G50" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="75"/>
+      <c r="K50" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="61"/>
+      <c r="O50" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P50" s="61"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T50" s="61"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="X50" s="61"/>
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="43"/>
+      <c r="AF50" s="43"/>
+      <c r="AG50" s="43"/>
+    </row>
+    <row r="51" spans="2:33" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C51" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="59"/>
+      <c r="G51" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="59"/>
+      <c r="K51" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="59"/>
+      <c r="O51" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="59"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="T51" s="59"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="18"/>
+      <c r="AE51" s="32"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="32"/>
+    </row>
+    <row r="52" spans="2:33" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C52" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="59"/>
+      <c r="G52" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="59"/>
+      <c r="K52" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="59"/>
+      <c r="O52" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="P52" s="59"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="T52" s="59"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="59"/>
+      <c r="Y52" s="18"/>
+      <c r="AE52" s="32"/>
+      <c r="AF52" s="32"/>
+      <c r="AG52" s="32"/>
+    </row>
+    <row r="53" spans="2:33" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C53" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="59"/>
+      <c r="G53" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="59"/>
+      <c r="K53" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="L53" s="59"/>
+      <c r="O53" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="P53" s="59"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="T53" s="59"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="18"/>
+      <c r="AE53" s="32"/>
+      <c r="AF53" s="32"/>
+      <c r="AG53" s="32"/>
+    </row>
+    <row r="54" spans="2:33" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C54" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="55"/>
+      <c r="G54" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="55"/>
+      <c r="K54" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" s="55"/>
+      <c r="O54" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="P54" s="55"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="T54" s="55"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="X54" s="55"/>
+      <c r="Y54" s="18"/>
+      <c r="AE54" s="32"/>
+      <c r="AF54" s="32"/>
+      <c r="AG54" s="32"/>
+    </row>
+    <row r="55" spans="2:33" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C55" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="57"/>
+      <c r="G55" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="57"/>
+      <c r="K55" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="57"/>
+      <c r="O55" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P55" s="57"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="T55" s="57"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="X55" s="57"/>
+      <c r="Y55" s="18"/>
+      <c r="AE55" s="32"/>
+      <c r="AF55" s="32"/>
+      <c r="AG55" s="32"/>
+    </row>
+    <row r="56" spans="2:33" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="11"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AE56" s="32"/>
+      <c r="AF56" s="32"/>
+      <c r="AG56" s="32"/>
+    </row>
+    <row r="57" spans="2:33" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="I57" s="25"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="32"/>
+      <c r="AA57" s="32"/>
+      <c r="AB57" s="32"/>
+      <c r="AC57" s="32"/>
+      <c r="AD57" s="32"/>
+      <c r="AE57" s="32"/>
+      <c r="AF57" s="32"/>
+      <c r="AG57" s="32"/>
+    </row>
+    <row r="58" spans="2:33" s="29" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B58" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="53"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+    </row>
+    <row r="59" spans="2:33" s="29" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B59" s="30"/>
+      <c r="C59" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="61"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="61"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="61"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="T59" s="61"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+    </row>
+    <row r="60" spans="2:33" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B60" s="20"/>
+      <c r="C60" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="59"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="59"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="L60" s="59"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="T60" s="59"/>
+      <c r="U60" s="18"/>
+    </row>
+    <row r="61" spans="2:33" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B61" s="20"/>
+      <c r="C61" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="59"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="59"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="59"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="T61" s="59"/>
+      <c r="U61" s="18"/>
+    </row>
+    <row r="62" spans="2:33" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B62" s="20"/>
+      <c r="C62" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="59"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="59"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" s="59"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="P62" s="59"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="T62" s="59"/>
+      <c r="U62" s="18"/>
+    </row>
+    <row r="63" spans="2:33" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B63" s="20"/>
+      <c r="C63" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="55"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" s="55"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="L63" s="55"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="T63" s="55"/>
+      <c r="U63" s="18"/>
+    </row>
+    <row r="64" spans="2:33" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B64" s="20"/>
+      <c r="C64" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="57"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="57"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="57"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="T64" s="57"/>
+      <c r="U64" s="18"/>
+    </row>
+    <row r="65" spans="2:37" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B65" s="20"/>
+      <c r="C65" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="69"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="18"/>
+    </row>
+    <row r="66" spans="2:37" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B66" s="21"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="19"/>
+    </row>
+    <row r="67" spans="2:37" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="2:37" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C68" s="6"/>
+      <c r="D68" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+    </row>
+    <row r="69" spans="2:37" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C69" s="7"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="4"/>
+      <c r="N69" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="O69" s="52"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="52"/>
+      <c r="R69" s="52"/>
+      <c r="S69" s="52"/>
+      <c r="T69" s="52"/>
+      <c r="U69" s="52"/>
+      <c r="V69" s="52"/>
+      <c r="W69" s="52"/>
+      <c r="X69" s="52"/>
+      <c r="Y69" s="52"/>
+      <c r="Z69" s="52"/>
+      <c r="AA69" s="52"/>
+      <c r="AB69" s="52"/>
+      <c r="AC69" s="53"/>
+    </row>
+    <row r="70" spans="2:37" s="29" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C70" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="61"/>
+      <c r="G70" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" s="71"/>
+      <c r="K70" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="61"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="P70" s="61"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T70" s="61"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="28"/>
+      <c r="W70" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X70" s="61"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="28"/>
+      <c r="AA70" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB70" s="61"/>
+      <c r="AC70" s="31"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+    </row>
+    <row r="71" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="59"/>
+      <c r="G71" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" s="59"/>
+      <c r="K71" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="L71" s="59"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="P71" s="59"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="T71" s="59"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="X71" s="59"/>
+      <c r="Y71" s="23"/>
+      <c r="Z71" s="23"/>
+      <c r="AA71" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB71" s="59"/>
+      <c r="AC71" s="18"/>
+    </row>
+    <row r="72" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="59"/>
+      <c r="G72" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="59"/>
+      <c r="K72" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="L72" s="59"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="T72" s="59"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="23"/>
+      <c r="Z72" s="23"/>
+      <c r="AA72" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="18"/>
+    </row>
+    <row r="73" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="59"/>
+      <c r="G73" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="59"/>
+      <c r="K73" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="59"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="P73" s="59"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="T73" s="59"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="X73" s="59"/>
+      <c r="Y73" s="23"/>
+      <c r="Z73" s="23"/>
+      <c r="AA73" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB73" s="59"/>
+      <c r="AC73" s="18"/>
+    </row>
+    <row r="74" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="55"/>
+      <c r="G74" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H74" s="55"/>
+      <c r="K74" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="L74" s="55"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="P74" s="55"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="T74" s="55"/>
+      <c r="U74" s="23"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="X74" s="55"/>
+      <c r="Y74" s="23"/>
+      <c r="Z74" s="23"/>
+      <c r="AA74" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB74" s="55"/>
+      <c r="AC74" s="18"/>
+    </row>
+    <row r="75" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="57"/>
+      <c r="G75" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="57"/>
+      <c r="K75" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" s="63"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="T75" s="57"/>
+      <c r="U75" s="23"/>
+      <c r="V75" s="23"/>
+      <c r="W75" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="X75" s="57"/>
+      <c r="Y75" s="23"/>
+      <c r="Z75" s="23"/>
+      <c r="AA75" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB75" s="57"/>
+      <c r="AC75" s="18"/>
+    </row>
+    <row r="76" spans="2:37" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="11"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="22"/>
+      <c r="U76" s="22"/>
+      <c r="V76" s="22"/>
+      <c r="W76" s="22"/>
+      <c r="X76" s="22"/>
+      <c r="Y76" s="22"/>
+      <c r="Z76" s="22"/>
+      <c r="AA76" s="22"/>
+      <c r="AB76" s="22"/>
+      <c r="AC76" s="19"/>
+    </row>
+    <row r="77" spans="2:37" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="G77" s="25"/>
+    </row>
+    <row r="78" spans="2:37" s="29" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.3">
+      <c r="B78" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="52"/>
+      <c r="P78" s="52"/>
+      <c r="Q78" s="52"/>
+      <c r="R78" s="52"/>
+      <c r="S78" s="52"/>
+      <c r="T78" s="52"/>
+      <c r="U78" s="52"/>
+      <c r="V78" s="52"/>
+      <c r="W78" s="52"/>
+      <c r="X78" s="52"/>
+      <c r="Y78" s="53"/>
+    </row>
+    <row r="79" spans="2:37" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="30"/>
+      <c r="C79" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="61"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="61"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L79" s="61"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P79" s="61"/>
+      <c r="Q79" s="28"/>
+      <c r="R79" s="28"/>
+      <c r="S79" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T79" s="61"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="28"/>
+      <c r="W79" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="X79" s="61"/>
+      <c r="Y79" s="45"/>
+    </row>
+    <row r="80" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="20"/>
+      <c r="C80" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="59"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="59"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="L80" s="59"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="P80" s="59"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="T80" s="59"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="X80" s="59"/>
+      <c r="Y80" s="45"/>
+    </row>
+    <row r="81" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B81" s="20"/>
+      <c r="C81" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="59"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="59"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="L81" s="59"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="23"/>
+      <c r="R81" s="23"/>
+      <c r="S81" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="T81" s="59"/>
+      <c r="U81" s="23"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="X81" s="59"/>
+      <c r="Y81" s="45"/>
+    </row>
+    <row r="82" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B82" s="20"/>
+      <c r="C82" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="59"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" s="59"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="L82" s="59"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="P82" s="59"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="T82" s="59"/>
+      <c r="U82" s="23"/>
+      <c r="V82" s="23"/>
+      <c r="W82" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="X82" s="59"/>
+      <c r="Y82" s="45"/>
+    </row>
+    <row r="83" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B83" s="20"/>
+      <c r="C83" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="55"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="H83" s="55"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="L83" s="55"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="P83" s="55"/>
+      <c r="Q83" s="23"/>
+      <c r="R83" s="23"/>
+      <c r="S83" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="T83" s="55"/>
+      <c r="U83" s="23"/>
+      <c r="V83" s="23"/>
+      <c r="W83" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="X83" s="55"/>
+      <c r="Y83" s="45"/>
+    </row>
+    <row r="84" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B84" s="20"/>
+      <c r="C84" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="63"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="57"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84" s="57"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="23"/>
+      <c r="S84" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="T84" s="57"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="X84" s="57"/>
+      <c r="Y84" s="45"/>
+    </row>
+    <row r="85" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B85" s="20"/>
+      <c r="C85" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="69"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="23"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="23"/>
+      <c r="S85" s="23"/>
+      <c r="T85" s="23"/>
+      <c r="U85" s="23"/>
+      <c r="V85" s="23"/>
+      <c r="W85" s="23"/>
+      <c r="X85" s="23"/>
+      <c r="Y85" s="45"/>
+    </row>
+    <row r="86" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B86" s="21"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="22"/>
+      <c r="Q86" s="22"/>
+      <c r="R86" s="22"/>
+      <c r="S86" s="22"/>
+      <c r="T86" s="22"/>
+      <c r="U86" s="22"/>
+      <c r="V86" s="22"/>
+      <c r="W86" s="22"/>
+      <c r="X86" s="22"/>
+      <c r="Y86" s="46"/>
+    </row>
+    <row r="87" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+    </row>
+    <row r="88" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C88" s="7"/>
+    </row>
+    <row r="89" spans="2:25" s="29" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.3">
+      <c r="C89" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="61"/>
+      <c r="K89" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="L89" s="61"/>
+      <c r="N89" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="O89" s="50"/>
+      <c r="P89" s="50"/>
+      <c r="Q89" s="50"/>
+      <c r="R89" s="50"/>
+      <c r="S89" s="50"/>
+      <c r="T89" s="50"/>
+    </row>
+    <row r="90" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C90" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="59"/>
+      <c r="F90" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="K90" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="L90" s="59"/>
+      <c r="N90" s="44"/>
+      <c r="O90" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="49"/>
+      <c r="R90" s="49"/>
+    </row>
+    <row r="91" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C91" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="59"/>
+      <c r="F91" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
+      <c r="K91" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="L91" s="59"/>
+    </row>
+    <row r="92" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C92" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="59"/>
+      <c r="F92" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="K92" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92" s="59"/>
+    </row>
+    <row r="93" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C93" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" s="55"/>
+    </row>
+    <row r="94" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C94" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="63"/>
+      <c r="J94" s="48"/>
+    </row>
+    <row r="95" spans="2:25" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C95" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="253">
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="C95:D95"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="F91:I91"/>
     <mergeCell ref="K91:L91"/>
@@ -3197,160 +5440,238 @@
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="K89:L89"/>
+    <mergeCell ref="N89:T89"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="F90:I90"/>
     <mergeCell ref="K90:L90"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="W84:X84"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="G83:H83"/>
     <mergeCell ref="K83:L83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="W83:X83"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="W82:X82"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="G81:H81"/>
     <mergeCell ref="K81:L81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="W81:X81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="W80:X80"/>
+    <mergeCell ref="AA75:AB75"/>
+    <mergeCell ref="B78:Y78"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="G79:H79"/>
     <mergeCell ref="K79:L79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="W79:X79"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="AA73:AB73"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="G74:H74"/>
     <mergeCell ref="K74:L74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="W74:X74"/>
+    <mergeCell ref="AA74:AB74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="W73:X73"/>
+    <mergeCell ref="AA71:AB71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="G72:H72"/>
     <mergeCell ref="K72:L72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="W72:X72"/>
+    <mergeCell ref="AA72:AB72"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="W71:X71"/>
+    <mergeCell ref="D68:K68"/>
+    <mergeCell ref="N69:AC69"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="G70:H70"/>
     <mergeCell ref="K70:L70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="AA70:AB70"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="K64:L64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="S64:T64"/>
     <mergeCell ref="C65:D65"/>
-    <mergeCell ref="D68:K68"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="G62:H62"/>
     <mergeCell ref="K62:L62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="S62:T62"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="K63:L63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="S63:T63"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="G60:H60"/>
     <mergeCell ref="K60:L60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="S60:T60"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="K61:L61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="B58:U58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="S59:T59"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="O55:P55"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B58:U58"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="W54:X54"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="O53:P53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="W52:X52"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="O51:P51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="D48:O48"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="W51:X51"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="D48:O48"/>
+    <mergeCell ref="R49:Y49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="K43:L43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="O35:P35"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="K39:L39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="O33:P33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="K34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="O31:P31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="N29:Q29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
@@ -3362,6 +5683,5 @@
     <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="10001" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>